--- a/biology/Histoire de la zoologie et de la botanique/Eduard_Rüppell/Eduard_Rüppell.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eduard_Rüppell/Eduard_Rüppell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eduard_R%C3%BCppell</t>
+          <t>Eduard_Rüppell</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eduard Rüppell, de son nom complet Wilhelm Peter Eduard Simon Rüppell, est un naturaliste et un explorateur prussien, né le 20 novembre 1794 à Francfort-sur-le-Main et mort le 10 décembre 1884 dans cette même ville.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eduard_R%C3%BCppell</t>
+          <t>Eduard_Rüppell</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un riche banquier, on le destine tout d'abord aux affaires, mais lors d'une visite au Sinaï en 1817, il découvre l'histoire naturelle. Il suit alors des cours de botanique et de zoologie dans les universités de Padoue et de Gênes.
 Rüppell se rend pour la première fois en Afrique en 1817 et remonte le Nil jusqu’aux chutes d’Assouan en Haute-Égypte.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eduard_R%C3%BCppell</t>
+          <t>Eduard_Rüppell</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Espèces dédiées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plusieurs espèces lui ont été dédiées dont:
 Fauvette de Rüppell (Sylvia rueppelli)
